--- a/FP1-G54-350-1201/FP1-log-G54-9417-350-1201.xlsx
+++ b/FP1-G54-350-1201/FP1-log-G54-9417-350-1201.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus Kan\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus Kan\Documents\GitHub\ENSC350FP\FP1-G54-350-1201\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Updated documents and redid some screenshots</t>
+  </si>
+  <si>
+    <t>Debugged and edited Arithmetic Unit source code and took screenshots</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,11 +1029,21 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="22"/>
-      <c r="G22" s="13"/>
+      <c r="B22" s="13">
+        <v>9417</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43926</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.90625</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
